--- a/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
   <si>
     <t>#</t>
   </si>
@@ -172,28 +172,22 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>$ 84.82</t>
-  </si>
-  <si>
-    <t>$ 93.91</t>
-  </si>
-  <si>
     <t>L181</t>
   </si>
   <si>
-    <t>$ 800.98</t>
-  </si>
-  <si>
-    <t>$ 186.74</t>
-  </si>
-  <si>
-    <t>$ 987.72</t>
-  </si>
-  <si>
     <t>Penalties Receivable(4)</t>
   </si>
   <si>
     <t>Income from Penalties(8)</t>
+  </si>
+  <si>
+    <t>$ 895.58</t>
+  </si>
+  <si>
+    <t>$ 793.66</t>
+  </si>
+  <si>
+    <t>$ 92.05</t>
   </si>
 </sst>
 </file>
@@ -300,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -333,9 +327,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,7 +663,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,26 +701,26 @@
       <c r="A2" s="9">
         <v>10000</v>
       </c>
-      <c r="B2" s="16">
-        <v>800.98</v>
+      <c r="B2" s="7">
+        <v>793.66</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9199.02</v>
+        <v>9206.34</v>
       </c>
       <c r="F2" s="7">
-        <v>787.72</v>
+        <v>802.97</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>668.41</v>
+        <v>667.48</v>
       </c>
       <c r="B3" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
@@ -738,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>481.67</v>
+        <v>565.55999999999995</v>
       </c>
       <c r="F3" s="7">
-        <v>0</v>
+        <v>84.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -795,7 +786,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,10 +902,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>785.8</v>
+        <v>793.66</v>
       </c>
       <c r="G3" s="10">
-        <v>9214.2000000000007</v>
+        <v>9206.34</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -926,10 +917,10 @@
         <v>0</v>
       </c>
       <c r="K3" s="7">
-        <v>887.72</v>
+        <v>895.58</v>
       </c>
       <c r="L3" s="7">
-        <v>887.72</v>
+        <v>895.58</v>
       </c>
       <c r="M3" s="7">
         <v>0</v>
@@ -957,13 +948,13 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.9</v>
+        <v>802.97</v>
       </c>
       <c r="G4" s="10">
-        <v>8411.2999999999993</v>
+        <v>8403.3700000000008</v>
       </c>
       <c r="H4" s="7">
-        <v>84.82</v>
+        <v>84.75</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
@@ -975,10 +966,10 @@
         <v>887.72</v>
       </c>
       <c r="L4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" s="7">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
         <v>0</v>
@@ -987,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="7">
-        <v>787.72</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1003,13 +994,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.81</v>
+        <v>793.89</v>
       </c>
       <c r="G5" s="10">
-        <v>7617.49</v>
+        <v>7609.48</v>
       </c>
       <c r="H5" s="7">
-        <v>93.91</v>
+        <v>93.83</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1049,13 +1040,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.59</v>
+        <v>812.67</v>
       </c>
       <c r="G6" s="10">
-        <v>6804.9</v>
+        <v>6796.81</v>
       </c>
       <c r="H6" s="7">
-        <v>75.13</v>
+        <v>75.05</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1095,13 +1086,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.37</v>
+        <v>818.45</v>
       </c>
       <c r="G7" s="10">
-        <v>5986.53</v>
+        <v>5978.36</v>
       </c>
       <c r="H7" s="7">
-        <v>69.349999999999994</v>
+        <v>69.27</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1141,13 +1132,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.67</v>
+        <v>828.76</v>
       </c>
       <c r="G8" s="10">
-        <v>5157.8599999999997</v>
+        <v>5149.6000000000004</v>
       </c>
       <c r="H8" s="7">
-        <v>59.05</v>
+        <v>58.96</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1187,13 +1178,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.15</v>
+        <v>835.24</v>
       </c>
       <c r="G9" s="10">
-        <v>4322.71</v>
+        <v>4314.3599999999997</v>
       </c>
       <c r="H9" s="7">
-        <v>52.57</v>
+        <v>52.48</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1233,13 +1224,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.66</v>
+        <v>843.75</v>
       </c>
       <c r="G10" s="10">
-        <v>3479.05</v>
+        <v>3470.61</v>
       </c>
       <c r="H10" s="7">
-        <v>44.06</v>
+        <v>43.97</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1279,13 +1270,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.41</v>
+        <v>853.49</v>
       </c>
       <c r="G11" s="10">
-        <v>2625.64</v>
+        <v>2617.12</v>
       </c>
       <c r="H11" s="7">
-        <v>34.31</v>
+        <v>34.229999999999997</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1325,13 +1316,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.96</v>
+        <v>861.05</v>
       </c>
       <c r="G12" s="10">
-        <v>1764.68</v>
+        <v>1756.07</v>
       </c>
       <c r="H12" s="7">
-        <v>26.76</v>
+        <v>26.67</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1371,13 +1362,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.31</v>
+        <v>870.4</v>
       </c>
       <c r="G13" s="7">
-        <v>894.37</v>
+        <v>885.67</v>
       </c>
       <c r="H13" s="7">
-        <v>17.41</v>
+        <v>17.32</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1417,13 +1408,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>894.37</v>
+        <v>885.67</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.1199999999999992</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1432,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>903.49</v>
+        <v>894.7</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1447,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="7">
-        <v>903.49</v>
+        <v>894.7</v>
       </c>
     </row>
   </sheetData>
@@ -1461,7 +1452,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A2:XFD7"/>
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1531,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>93.91</v>
+        <v>93.83</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1565,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>84.82</v>
+        <v>84.75</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1593,13 +1584,13 @@
         <v>40</v>
       </c>
       <c r="E4" s="7">
-        <v>987.72</v>
+        <v>895.58</v>
       </c>
       <c r="F4" s="7">
-        <v>800.98</v>
+        <v>793.66</v>
       </c>
       <c r="G4" s="7">
-        <v>186.74</v>
+        <v>101.92</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -1608,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="10">
-        <v>9199.02</v>
+        <v>9206.34</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
@@ -1794,7 +1785,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1844,7 +1835,7 @@
         <v>42036</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>36</v>
@@ -1857,7 +1848,7 @@
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1871,7 +1862,7 @@
         <v>42036</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" s="12" t="s">
         <v>36</v>
@@ -1898,7 +1889,7 @@
         <v>42036</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>36</v>
@@ -1910,7 +1901,7 @@
         <v>37</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I4" s="12"/>
     </row>
@@ -1923,8 +1914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2039,10 +2030,10 @@
         <v>35</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H4" s="12">
-        <v>100</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,10 +2056,10 @@
         <v>35</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I5" s="12">
-        <v>100</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,7 +2085,7 @@
         <v>43</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2120,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2143,10 +2134,10 @@
         <v>35</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H9" s="12">
-        <v>100</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2169,10 +2160,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I10" s="12">
-        <v>100</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2198,7 +2189,7 @@
         <v>43</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2224,7 +2215,7 @@
         <v>49</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="62">
   <si>
     <t>#</t>
   </si>
@@ -148,15 +148,9 @@
     <t>L7</t>
   </si>
   <si>
-    <t>$ 10,000</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
-    <t>$ 101.92</t>
-  </si>
-  <si>
     <t>clickonmakerepayment</t>
   </si>
   <si>
@@ -172,22 +166,46 @@
     <t>Income from interest(7)</t>
   </si>
   <si>
-    <t>L181</t>
-  </si>
-  <si>
-    <t>Penalties Receivable(4)</t>
-  </si>
-  <si>
-    <t>Income from Penalties(8)</t>
-  </si>
-  <si>
-    <t>$ 895.58</t>
-  </si>
-  <si>
-    <t>$ 793.66</t>
-  </si>
-  <si>
-    <t>$ 92.05</t>
+    <t>L1909</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>$ 101.92</t>
+  </si>
+  <si>
+    <t>Penalties Receivable(5)</t>
+  </si>
+  <si>
+    <t>$ 7.86</t>
+  </si>
+  <si>
+    <t>Income from penalties(9)</t>
+  </si>
+  <si>
+    <t>L1917</t>
+  </si>
+  <si>
+    <t>$ 84.82</t>
+  </si>
+  <si>
+    <t>$ 8.03</t>
+  </si>
+  <si>
+    <t>L1916</t>
+  </si>
+  <si>
+    <t>$ 785.8</t>
+  </si>
+  <si>
+    <t>$ 895.58</t>
+  </si>
+  <si>
+    <t>$ 10,000</t>
+  </si>
+  <si>
+    <t>$ 93.91</t>
   </si>
 </sst>
 </file>
@@ -294,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -327,6 +345,35 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,15 +686,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="15">
         <v>42036</v>
@@ -663,7 +710,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,22 +749,22 @@
         <v>10000</v>
       </c>
       <c r="B2" s="7">
-        <v>793.66</v>
+        <v>785.8</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>9206.34</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="F2" s="7">
-        <v>802.97</v>
+        <v>802.9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>667.48</v>
+        <v>668.41</v>
       </c>
       <c r="B3" s="7">
         <v>101.92</v>
@@ -729,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>565.55999999999995</v>
+        <v>566.49</v>
       </c>
       <c r="F3" s="7">
-        <v>84.75</v>
+        <v>84.82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -757,10 +804,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>0</v>
+        <v>15.89</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -769,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +833,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,7 +849,7 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
@@ -885,7 +932,6 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -902,10 +948,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="7">
-        <v>793.66</v>
+        <v>785.8</v>
       </c>
       <c r="G3" s="10">
-        <v>9206.34</v>
+        <v>9214.2000000000007</v>
       </c>
       <c r="H3" s="7">
         <v>101.92</v>
@@ -914,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="K3" s="7">
         <v>895.58</v>
@@ -926,9 +972,6 @@
         <v>0</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
         <v>0</v>
       </c>
       <c r="P3" s="7">
@@ -948,22 +991,22 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7">
-        <v>802.97</v>
+        <v>802.9</v>
       </c>
       <c r="G4" s="10">
-        <v>8403.3700000000008</v>
+        <v>8411.2999999999993</v>
       </c>
       <c r="H4" s="7">
-        <v>84.75</v>
+        <v>84.82</v>
       </c>
       <c r="I4" s="7">
         <v>0</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="K4" s="7">
-        <v>887.72</v>
+        <v>895.75</v>
       </c>
       <c r="L4" s="7">
         <v>0</v>
@@ -974,11 +1017,8 @@
       <c r="N4" s="7">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
       <c r="P4" s="7">
-        <v>887.72</v>
+        <v>895.75</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -994,13 +1034,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>793.89</v>
+        <v>793.81</v>
       </c>
       <c r="G5" s="10">
-        <v>7609.48</v>
+        <v>7617.49</v>
       </c>
       <c r="H5" s="7">
-        <v>93.83</v>
+        <v>93.91</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -1018,9 +1058,6 @@
         <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
         <v>0</v>
       </c>
       <c r="P5" s="7">
@@ -1040,13 +1077,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>812.67</v>
+        <v>812.59</v>
       </c>
       <c r="G6" s="10">
-        <v>6796.81</v>
+        <v>6804.9</v>
       </c>
       <c r="H6" s="7">
-        <v>75.05</v>
+        <v>75.13</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -1064,9 +1101,6 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
         <v>0</v>
       </c>
       <c r="P6" s="7">
@@ -1086,13 +1120,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>818.45</v>
+        <v>818.37</v>
       </c>
       <c r="G7" s="10">
-        <v>5978.36</v>
+        <v>5986.53</v>
       </c>
       <c r="H7" s="7">
-        <v>69.27</v>
+        <v>69.349999999999994</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1110,9 +1144,6 @@
         <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
         <v>0</v>
       </c>
       <c r="P7" s="7">
@@ -1132,13 +1163,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>828.76</v>
+        <v>828.67</v>
       </c>
       <c r="G8" s="10">
-        <v>5149.6000000000004</v>
+        <v>5157.8599999999997</v>
       </c>
       <c r="H8" s="7">
-        <v>58.96</v>
+        <v>59.05</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1156,9 +1187,6 @@
         <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
         <v>0</v>
       </c>
       <c r="P8" s="7">
@@ -1178,13 +1206,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.24</v>
+        <v>835.15</v>
       </c>
       <c r="G9" s="10">
-        <v>4314.3599999999997</v>
+        <v>4322.71</v>
       </c>
       <c r="H9" s="7">
-        <v>52.48</v>
+        <v>52.57</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1202,9 +1230,6 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="O9" s="7">
         <v>0</v>
       </c>
       <c r="P9" s="7">
@@ -1224,13 +1249,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>843.75</v>
+        <v>843.66</v>
       </c>
       <c r="G10" s="10">
-        <v>3470.61</v>
+        <v>3479.05</v>
       </c>
       <c r="H10" s="7">
-        <v>43.97</v>
+        <v>44.06</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1248,9 +1273,6 @@
         <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="7">
@@ -1270,13 +1292,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>853.49</v>
+        <v>853.41</v>
       </c>
       <c r="G11" s="10">
-        <v>2617.12</v>
+        <v>2625.64</v>
       </c>
       <c r="H11" s="7">
-        <v>34.229999999999997</v>
+        <v>34.31</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1294,9 +1316,6 @@
         <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
         <v>0</v>
       </c>
       <c r="P11" s="7">
@@ -1316,13 +1335,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>861.05</v>
+        <v>860.96</v>
       </c>
       <c r="G12" s="10">
-        <v>1756.07</v>
+        <v>1764.68</v>
       </c>
       <c r="H12" s="7">
-        <v>26.67</v>
+        <v>26.76</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1340,9 +1359,6 @@
         <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7">
         <v>0</v>
       </c>
       <c r="P12" s="7">
@@ -1362,13 +1378,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>870.4</v>
+        <v>870.31</v>
       </c>
       <c r="G13" s="7">
-        <v>885.67</v>
+        <v>894.37</v>
       </c>
       <c r="H13" s="7">
-        <v>17.32</v>
+        <v>17.41</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1386,9 +1402,6 @@
         <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7">
         <v>0</v>
       </c>
       <c r="P13" s="7">
@@ -1408,13 +1421,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>885.67</v>
+        <v>894.37</v>
       </c>
       <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>9.0299999999999994</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1423,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>894.7</v>
+        <v>903.49</v>
       </c>
       <c r="L14" s="7">
         <v>0</v>
@@ -1434,11 +1447,8 @@
       <c r="N14" s="7">
         <v>0</v>
       </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
       <c r="P14" s="7">
-        <v>894.7</v>
+        <v>903.49</v>
       </c>
     </row>
   </sheetData>
@@ -1449,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1480,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -1502,9 +1512,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>183</v>
+        <v>1918</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1522,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>93.83</v>
+        <v>93.91</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1533,12 +1543,10 @@
       <c r="J2" s="7">
         <v>0</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>182</v>
+        <v>1917</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1550,29 +1558,27 @@
         <v>39</v>
       </c>
       <c r="E3" s="7">
+        <v>92.85</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
         <v>84.82</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>84.75</v>
-      </c>
       <c r="H3" s="7">
         <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>8.0299999999999994</v>
       </c>
       <c r="J3" s="7">
         <v>0</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>181</v>
+        <v>1916</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1587,7 +1593,7 @@
         <v>895.58</v>
       </c>
       <c r="F4" s="7">
-        <v>793.66</v>
+        <v>785.8</v>
       </c>
       <c r="G4" s="7">
         <v>101.92</v>
@@ -1596,17 +1602,15 @@
         <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="J4" s="10">
-        <v>9206.34</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>9214.2000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>178</v>
+        <v>1909</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1618,7 +1622,7 @@
         <v>39</v>
       </c>
       <c r="E5" s="7">
-        <v>101.92</v>
+        <v>109.78</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1630,17 +1634,15 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7.86</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>177</v>
+        <v>1905</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1669,8 +1671,6 @@
       <c r="J6" s="9">
         <v>10000</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1679,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1690,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>28</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>13</v>
       </c>
@@ -1741,13 +1741,12 @@
       <c r="G2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>14</v>
       </c>
@@ -1769,11 +1768,10 @@
       <c r="G3" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="13"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1782,16 +1780,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD7"/>
+      <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1825,85 +1824,112 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>236</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="23">
+        <v>3539</v>
+      </c>
+      <c r="B2" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="24">
         <v>42036</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>3540</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="24">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="12" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>3541</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="24">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F4" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>237</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="22"/>
+      <c r="I4" s="23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>3542</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C5" s="24">
         <v>42036</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="D5" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F5" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>238</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="G5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="12"/>
+      <c r="H5" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1914,14 +1940,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="12"/>
-    <col min="3" max="3" width="9.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="12"/>
     <col min="6" max="6" width="11" style="12" bestFit="1" customWidth="1"/>
@@ -1959,212 +1985,226 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
-        <v>192</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="17">
+        <v>3511</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="18">
         <v>42036</v>
       </c>
-      <c r="D2" s="12">
-        <v>1</v>
-      </c>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="16"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>3512</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18">
+        <v>42036</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>3513</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18">
+        <v>42036</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>3514</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="18">
+        <v>42036</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>3543</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21">
+        <v>42064</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
-        <v>193</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="G7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>3544</v>
+      </c>
+      <c r="B8" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="12" t="s">
+      <c r="C8" s="21">
+        <v>42064</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
-        <v>194</v>
-      </c>
-      <c r="B4" s="12" t="s">
+      <c r="G8" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="20">
+        <v>3545</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D4" s="12">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="C9" s="21">
+        <v>42064</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F9" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G9" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="12">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
-        <v>195</v>
-      </c>
-      <c r="B5" s="12" t="s">
+      <c r="H9" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="20">
+        <v>3546</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="12">
-        <v>42036</v>
-      </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="12" t="s">
+      <c r="C10" s="21">
+        <v>42064</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="12">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>216</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D7" s="12">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>217</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D8" s="12">
-        <v>2</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>218</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D9" s="12">
-        <v>2</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="12">
-        <v>7.86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>219</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="12">
-        <v>42064</v>
-      </c>
-      <c r="D10" s="12">
-        <v>2</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="12">
-        <v>7.86</v>
-      </c>
+      <c r="G10" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
@@ -2173,7 +2213,7 @@
       <c r="B12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="18">
         <v>42095</v>
       </c>
       <c r="D12" s="12">
@@ -2186,11 +2226,12 @@
         <v>35</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H12" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -2199,23 +2240,24 @@
       <c r="B13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="18">
         <v>42095</v>
       </c>
       <c r="D13" s="12">
         <v>3</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
+++ b/Mifos Automation Excels/Client/3046-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-ONTIME-OVERDUE-FEE-%APR-AMT-Regular-PERIODIC-Makerepayment1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -830,10 +830,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,12 +851,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="27" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -896,17 +897,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -932,8 +934,9 @@
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -971,14 +974,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -1014,14 +1018,15 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
+      <c r="N4" s="7"/>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
         <v>895.75</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -1057,14 +1062,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -1100,14 +1106,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -1143,14 +1150,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>6</v>
       </c>
@@ -1186,14 +1194,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>7</v>
       </c>
@@ -1229,14 +1238,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>8</v>
       </c>
@@ -1272,14 +1282,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>9</v>
       </c>
@@ -1315,14 +1326,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -1358,14 +1370,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>11</v>
       </c>
@@ -1401,14 +1414,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>12</v>
       </c>
@@ -1444,10 +1458,11 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>903.49</v>
       </c>
     </row>
@@ -1940,7 +1955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
